--- a/Income/STX_inc.xlsx
+++ b/Income/STX_inc.xlsx
@@ -2120,16 +2120,16 @@
         <v>0.2646</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2691</v>
+        <v>0.2695</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0.2701</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0.2698</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>0.2694</v>
-      </c>
       <c r="G16" s="0" t="n">
-        <v>0.2661</v>
+        <v>0.2665</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2696</v>
